--- a/new.xlsx
+++ b/new.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B23D1-981D-476B-A511-4A8C3570CB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+  <si>
+    <t>11/22/2021</t>
+  </si>
   <si>
     <t>Weight</t>
   </si>
@@ -25,12 +29,24 @@
     <t>dumbbell curls</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>rope pull downs</t>
   </si>
   <si>
     <t>70lbs</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>rope pull ups</t>
   </si>
   <si>
@@ -40,15 +56,30 @@
     <t>55lbs</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>leg press</t>
   </si>
   <si>
     <t>180lbs</t>
   </si>
   <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>dips</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>calve raises</t>
   </si>
   <si>
@@ -100,26 +131,59 @@
     <t>10 7 6</t>
   </si>
   <si>
+    <t>11 7 5</t>
+  </si>
+  <si>
+    <t>10 6</t>
+  </si>
+  <si>
+    <t>12 8 6</t>
+  </si>
+  <si>
+    <t>10 8 6</t>
+  </si>
+  <si>
+    <t>10 7</t>
+  </si>
+  <si>
+    <t>10 8</t>
+  </si>
+  <si>
+    <t>12-6</t>
+  </si>
+  <si>
     <t>lat pulldown wide overhand grip</t>
   </si>
   <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>lat pulldown underhand grip</t>
   </si>
   <si>
     <t>leg extensions</t>
+  </si>
+  <si>
+    <t>bicep curls</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,12 +206,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,14 +527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="60">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AP1:AU3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
@@ -494,126 +560,230 @@
     <col min="22" max="22" width="7.42578125" customWidth="1"/>
     <col min="23" max="23" width="5.85546875" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" customWidth="1"/>
+    <col min="29" max="29" width="5.28515625" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="33" max="33" width="5.85546875" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" customWidth="1"/>
+    <col min="37" max="37" width="5.28515625" customWidth="1"/>
+    <col min="38" max="38" width="7.42578125" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
         <v>44474</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2">
         <v>44477</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2">
         <v>44481</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2">
         <v>44487</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2">
         <v>44488</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2">
         <v>44490</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2">
         <v>44491</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2">
         <v>44501</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2">
         <v>44502</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2">
         <v>44504</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2">
         <v>44505</v>
       </c>
-      <c r="W1" s="1"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="3">
+        <v>44508</v>
+      </c>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="3">
+        <v>44509</v>
+      </c>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="3">
+        <v>44511</v>
+      </c>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="3">
+        <v>44512</v>
+      </c>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="3">
+        <v>44515</v>
+      </c>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="3">
+        <v>44516</v>
+      </c>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="3">
+        <v>44518</v>
+      </c>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="3">
+        <v>44519</v>
+      </c>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="4"/>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -681,13 +851,67 @@
       <c r="W3">
         <v>10</v>
       </c>
+      <c r="X3">
+        <v>40</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>40</v>
+      </c>
+      <c r="AA3">
+        <v>10</v>
+      </c>
+      <c r="AB3">
+        <v>40</v>
+      </c>
+      <c r="AC3">
+        <v>10</v>
+      </c>
+      <c r="AD3">
+        <v>40</v>
+      </c>
+      <c r="AE3">
+        <v>10</v>
+      </c>
+      <c r="AF3">
+        <v>40</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <v>40</v>
+      </c>
+      <c r="AI3">
+        <v>10</v>
+      </c>
+      <c r="AJ3">
+        <v>45</v>
+      </c>
+      <c r="AK3">
+        <v>6</v>
+      </c>
+      <c r="AL3">
+        <v>45</v>
+      </c>
+      <c r="AM3">
+        <v>6</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>90</v>
@@ -749,13 +973,67 @@
       <c r="W4">
         <v>8</v>
       </c>
+      <c r="X4">
+        <v>100</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>100</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AB4">
+        <v>100</v>
+      </c>
+      <c r="AC4">
+        <v>6</v>
+      </c>
+      <c r="AD4">
+        <v>100</v>
+      </c>
+      <c r="AE4">
+        <v>6</v>
+      </c>
+      <c r="AF4">
+        <v>110</v>
+      </c>
+      <c r="AG4">
+        <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>110</v>
+      </c>
+      <c r="AI4">
+        <v>6</v>
+      </c>
+      <c r="AJ4">
+        <v>110</v>
+      </c>
+      <c r="AK4">
+        <v>6</v>
+      </c>
+      <c r="AL4">
+        <v>100</v>
+      </c>
+      <c r="AM4">
+        <v>8</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -817,13 +1095,43 @@
       <c r="W5">
         <v>8</v>
       </c>
+      <c r="X5">
+        <v>100</v>
+      </c>
+      <c r="Y5">
+        <v>8</v>
+      </c>
+      <c r="Z5">
+        <v>100</v>
+      </c>
+      <c r="AA5">
+        <v>8</v>
+      </c>
+      <c r="AB5">
+        <v>100</v>
+      </c>
+      <c r="AC5">
+        <v>8</v>
+      </c>
+      <c r="AD5">
+        <v>100</v>
+      </c>
+      <c r="AE5">
+        <v>10</v>
+      </c>
+      <c r="AF5">
+        <v>110</v>
+      </c>
+      <c r="AG5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>70</v>
@@ -885,13 +1193,61 @@
       <c r="W6">
         <v>6</v>
       </c>
+      <c r="X6">
+        <v>120</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>120</v>
+      </c>
+      <c r="AA6">
+        <v>8</v>
+      </c>
+      <c r="AB6">
+        <v>120</v>
+      </c>
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <v>120</v>
+      </c>
+      <c r="AE6">
+        <v>8</v>
+      </c>
+      <c r="AF6">
+        <v>120</v>
+      </c>
+      <c r="AG6">
+        <v>8</v>
+      </c>
+      <c r="AJ6">
+        <v>120</v>
+      </c>
+      <c r="AK6">
+        <v>7</v>
+      </c>
+      <c r="AL6">
+        <v>120</v>
+      </c>
+      <c r="AM6">
+        <v>8</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>220</v>
@@ -947,10 +1303,46 @@
       <c r="W7">
         <v>10</v>
       </c>
+      <c r="X7">
+        <v>300</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>280</v>
+      </c>
+      <c r="AA7">
+        <v>8</v>
+      </c>
+      <c r="AB7">
+        <v>270</v>
+      </c>
+      <c r="AC7">
+        <v>8</v>
+      </c>
+      <c r="AH7">
+        <v>300</v>
+      </c>
+      <c r="AI7">
+        <v>10</v>
+      </c>
+      <c r="AL7">
+        <v>250</v>
+      </c>
+      <c r="AM7">
+        <v>8</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -985,71 +1377,128 @@
       <c r="V8">
         <v>10</v>
       </c>
+      <c r="Y8">
+        <v>15</v>
+      </c>
+      <c r="AC8">
+        <v>12</v>
+      </c>
+      <c r="AE8">
+        <v>14</v>
+      </c>
+      <c r="AG8">
+        <v>14</v>
+      </c>
+      <c r="AI8">
+        <v>18</v>
+      </c>
+      <c r="AK8">
+        <v>18</v>
+      </c>
+      <c r="AM8">
+        <v>14</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="R9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AC10">
+        <v>106</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" t="s">
-        <v>26</v>
-      </c>
-      <c r="W10" t="s">
-        <v>27</v>
+      <c r="AO10" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1105,10 +1554,64 @@
       <c r="W11">
         <v>6</v>
       </c>
+      <c r="X11">
+        <v>150</v>
+      </c>
+      <c r="Y11">
+        <v>6</v>
+      </c>
+      <c r="Z11">
+        <v>150</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>170</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11">
+        <v>170</v>
+      </c>
+      <c r="AE11">
+        <v>6</v>
+      </c>
+      <c r="AF11">
+        <v>170</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
+      </c>
+      <c r="AH11">
+        <v>170</v>
+      </c>
+      <c r="AI11">
+        <v>4</v>
+      </c>
+      <c r="AJ11">
+        <v>170</v>
+      </c>
+      <c r="AK11">
+        <v>4</v>
+      </c>
+      <c r="AL11">
+        <v>170</v>
+      </c>
+      <c r="AM11">
+        <v>4</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>130</v>
@@ -1161,31 +1664,141 @@
       <c r="W12">
         <v>6</v>
       </c>
+      <c r="X12">
+        <v>150</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12">
+        <v>150</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AB12">
+        <v>150</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>150</v>
+      </c>
+      <c r="AE12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <v>150</v>
+      </c>
+      <c r="AG12">
+        <v>6</v>
+      </c>
+      <c r="AH12">
+        <v>170</v>
+      </c>
+      <c r="AI12">
+        <v>6</v>
+      </c>
+      <c r="AJ12">
+        <v>170</v>
+      </c>
+      <c r="AK12">
+        <v>6</v>
+      </c>
+      <c r="AL12">
+        <v>170</v>
+      </c>
+      <c r="AM12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="V13">
         <v>100</v>
       </c>
       <c r="W13">
         <v>10</v>
+      </c>
+      <c r="X13">
+        <v>110</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>110</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AL13">
+        <v>115</v>
+      </c>
+      <c r="AM13">
+        <v>10</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH14">
+        <v>60</v>
+      </c>
+      <c r="AI14">
+        <v>6</v>
+      </c>
+      <c r="AJ14">
+        <v>60</v>
+      </c>
+      <c r="AK14">
+        <v>6</v>
+      </c>
+      <c r="AL14">
+        <v>60</v>
+      </c>
+      <c r="AM14">
+        <v>6</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="20">
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/new.xlsx
+++ b/new.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B23D1-981D-476B-A511-4A8C3570CB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="55">
   <si>
     <t>11/22/2021</t>
   </si>
   <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -171,19 +176,22 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>fcgvbh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,14 +214,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,14 +534,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AP1:AU3"/>
+    <sheetView workbookViewId="0" zoomScale="86" zoomScaleNormal="86">
+      <selection activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
@@ -577,213 +584,463 @@
     <col min="39" max="39" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="2">
+    <row r="1" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
         <v>44474</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
         <v>44477</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1">
         <v>44481</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1">
         <v>44487</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1">
         <v>44488</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1">
         <v>44490</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1">
         <v>44491</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1">
         <v>44501</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1">
         <v>44502</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2">
+      <c r="S1" s="1"/>
+      <c r="T1" s="1">
         <v>44504</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1">
         <v>44505</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="3">
+      <c r="W1" s="1"/>
+      <c r="X1" s="2">
         <v>44508</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="3">
+      <c r="Y1"/>
+      <c r="Z1" s="2">
         <v>44509</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="3">
+      <c r="AA1"/>
+      <c r="AB1" s="2">
         <v>44511</v>
       </c>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="3">
+      <c r="AC1"/>
+      <c r="AD1" s="2">
         <v>44512</v>
       </c>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="3">
+      <c r="AE1"/>
+      <c r="AF1" s="2">
         <v>44515</v>
       </c>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="3">
+      <c r="AG1"/>
+      <c r="AH1" s="2">
         <v>44516</v>
       </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="3">
+      <c r="AI1"/>
+      <c r="AJ1" s="2">
         <v>44518</v>
       </c>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="3">
+      <c r="AK1"/>
+      <c r="AL1" s="2">
         <v>44519</v>
       </c>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4" t="s">
+      <c r="AM1"/>
+      <c r="AN1" t="s">
         <v>0</v>
       </c>
-      <c r="AO1" s="4"/>
+      <c r="AO1"/>
+      <c r="AP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1"/>
+      <c r="AR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1"/>
+      <c r="AT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1"/>
+      <c r="AV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1"/>
+      <c r="AX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1"/>
+      <c r="AZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1"/>
+      <c r="BB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1"/>
+      <c r="BD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE1"/>
+      <c r="BF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1"/>
+      <c r="BH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI1"/>
+      <c r="BJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK1"/>
+      <c r="BL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM1"/>
+      <c r="BN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO1"/>
+      <c r="BP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ1"/>
+      <c r="BR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS1"/>
+      <c r="BT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1"/>
+      <c r="BV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW1"/>
+      <c r="BX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY1"/>
+      <c r="BZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA1"/>
+      <c r="CB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC1"/>
+      <c r="CD1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE1"/>
+      <c r="CF1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG1"/>
+      <c r="CH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI1"/>
+      <c r="CJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK1"/>
+      <c r="CL1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM1"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -900,18 +1157,18 @@
         <v>6</v>
       </c>
       <c r="AN3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>90</v>
@@ -1022,18 +1279,18 @@
         <v>8</v>
       </c>
       <c r="AN4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1128,10 +1385,10 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>70</v>
@@ -1236,18 +1493,18 @@
         <v>8</v>
       </c>
       <c r="AN6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>220</v>
@@ -1334,15 +1591,15 @@
         <v>8</v>
       </c>
       <c r="AN7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1399,74 +1656,74 @@
         <v>14</v>
       </c>
       <c r="AN8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
         <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA10">
         <v>10</v>
@@ -1475,30 +1732,30 @@
         <v>106</v>
       </c>
       <c r="AE10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AK10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AN10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1603,15 +1860,15 @@
         <v>4</v>
       </c>
       <c r="AN11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>130</v>
@@ -1715,7 +1972,7 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V13">
         <v>100</v>
@@ -1742,15 +1999,15 @@
         <v>10</v>
       </c>
       <c r="AN13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH14">
         <v>60</v>
@@ -1771,34 +2028,64 @@
         <v>6</v>
       </c>
       <c r="AN14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AO14" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="45">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BH1:BI1"/>
+    <mergeCell ref="BJ1:BK1"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="BN1:BO1"/>
+    <mergeCell ref="BP1:BQ1"/>
+    <mergeCell ref="BR1:BS1"/>
+    <mergeCell ref="BT1:BU1"/>
+    <mergeCell ref="BV1:BW1"/>
+    <mergeCell ref="BX1:BY1"/>
+    <mergeCell ref="BZ1:CA1"/>
+    <mergeCell ref="CB1:CC1"/>
+    <mergeCell ref="CD1:CE1"/>
+    <mergeCell ref="CF1:CG1"/>
+    <mergeCell ref="CH1:CI1"/>
+    <mergeCell ref="CJ1:CK1"/>
+    <mergeCell ref="CL1:CM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/new.xlsx
+++ b/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="57">
   <si>
     <t>11/22/2021</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>2022-06-23</t>
+  </si>
+  <si>
+    <t>2022-06-26</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
   </si>
   <si>
     <t>Weight</t>
@@ -535,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM15"/>
+  <dimension ref="A1:CQ15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="86" zoomScaleNormal="86">
       <selection activeCell="AS17" sqref="AS17"/>
@@ -584,7 +590,7 @@
     <col min="39" max="39" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>44474</v>
       </c>
@@ -765,282 +771,302 @@
         <v>2</v>
       </c>
       <c r="CM1"/>
+      <c r="CN1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO1"/>
+      <c r="CP1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ1"/>
     </row>
-    <row r="2" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BE2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BK2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BL2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BM2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BN2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BO2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BP2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BQ2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BR2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BS2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BT2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BU2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BV2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BW2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BX2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BY2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BZ2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CA2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CB2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CC2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CD2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CF2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CG2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CH2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CI2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CJ2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CK2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CL2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -1157,18 +1183,18 @@
         <v>6</v>
       </c>
       <c r="AN3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>90</v>
@@ -1279,18 +1305,18 @@
         <v>8</v>
       </c>
       <c r="AN4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1385,10 +1411,10 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>70</v>
@@ -1493,18 +1519,18 @@
         <v>8</v>
       </c>
       <c r="AN6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>220</v>
@@ -1591,15 +1617,15 @@
         <v>8</v>
       </c>
       <c r="AN7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1656,74 +1682,74 @@
         <v>14</v>
       </c>
       <c r="AN8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
         <v>27</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA10">
         <v>10</v>
@@ -1732,30 +1758,30 @@
         <v>106</v>
       </c>
       <c r="AE10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AN10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1860,15 +1886,15 @@
         <v>4</v>
       </c>
       <c r="AN11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>130</v>
@@ -1972,7 +1998,7 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V13">
         <v>100</v>
@@ -1999,15 +2025,15 @@
         <v>10</v>
       </c>
       <c r="AN13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH14">
         <v>60</v>
@@ -2028,19 +2054,19 @@
         <v>6</v>
       </c>
       <c r="AN14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AO14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="47">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -2086,6 +2112,8 @@
     <mergeCell ref="CH1:CI1"/>
     <mergeCell ref="CJ1:CK1"/>
     <mergeCell ref="CL1:CM1"/>
+    <mergeCell ref="CN1:CO1"/>
+    <mergeCell ref="CP1:CQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
